--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="267">
   <si>
     <t>type</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Year of Last Distribution</t>
+  </si>
+  <si>
+    <t>. &gt; 1970 and . &lt; 2022</t>
+  </si>
+  <si>
+    <t>Please enter a valid year</t>
   </si>
   <si>
     <t>calculate</t>
@@ -818,10 +824,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -869,105 +875,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,7 +891,120 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,21 +1015,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1027,7 +1033,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,25 +1087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,79 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1123,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,25 +1165,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,13 +1201,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,11 +1272,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,50 +1320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1345,6 +1331,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,145 +1360,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1511,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1520,7 +1526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1882,7 +1887,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1903,43 +1908,43 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1947,74 +1952,74 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2022,24 +2027,24 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2047,66 +2052,66 @@
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+    <row r="7" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="J8" s="17" t="s">
+      <c r="D8" s="17"/>
+      <c r="J8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2117,12 +2122,12 @@
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="17" t="s">
+      <c r="D9" s="17"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2136,9 +2141,9 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2155,7 +2160,7 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2166,10 +2171,10 @@
       <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2183,7 +2188,7 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2197,8 +2202,7 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14"/>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2212,7 +2216,7 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2226,7 +2230,7 @@
       <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2240,7 +2244,7 @@
       <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2257,7 +2261,7 @@
       <c r="H18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2274,7 +2278,7 @@
       <c r="H19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2288,55 +2292,61 @@
       <c r="C20" t="s">
         <v>72</v>
       </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
       <c r="H20" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2366,2418 +2376,2398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" s="4" customFormat="1" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" s="4" customFormat="1" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:5">
+      <c r="A20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:5">
+      <c r="A22" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="B22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:5">
+      <c r="A23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:5">
+      <c r="A25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:5">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:5">
+      <c r="A27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="B27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:5">
+      <c r="A28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="B28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:5">
+      <c r="A29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:6">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="1:5">
-      <c r="A22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="1:5">
-      <c r="A23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="B29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:5">
+      <c r="A30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:5">
+      <c r="A31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:5">
+      <c r="A32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:5">
+      <c r="A33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" s="4" customFormat="1" spans="1:5">
+      <c r="A34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" s="4" customFormat="1" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:5">
+      <c r="A36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" s="4" customFormat="1" spans="1:5">
+      <c r="A37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" s="4" customFormat="1" spans="1:5">
+      <c r="A38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" s="4" customFormat="1" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" s="4" customFormat="1" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" s="4" customFormat="1" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" s="5" customFormat="1" spans="1:5">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" s="5" customFormat="1" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" s="4" customFormat="1" spans="1:5">
+      <c r="A42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" s="4" customFormat="1" spans="1:5">
+      <c r="A43" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:5">
+      <c r="A44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" s="4" customFormat="1" spans="1:5">
+      <c r="A45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" s="4" customFormat="1" spans="1:5">
+      <c r="A46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" s="4" customFormat="1" spans="1:5">
+      <c r="A47" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" s="4" customFormat="1" spans="1:5">
+      <c r="A48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" s="4" customFormat="1" spans="1:5">
+      <c r="A49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" s="4" customFormat="1" spans="1:5">
+      <c r="A50" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" s="4" customFormat="1" spans="1:5">
+      <c r="A51" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" s="4" customFormat="1" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" s="4" customFormat="1" spans="1:5">
+      <c r="A53" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" s="4" customFormat="1" spans="1:5">
+      <c r="A54" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" s="4" customFormat="1" spans="1:5">
+      <c r="A55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" s="4" customFormat="1" spans="1:5">
+      <c r="A56" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" s="4" customFormat="1" spans="1:5">
+      <c r="A57" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" s="4" customFormat="1" spans="1:5">
+      <c r="A58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" s="4" customFormat="1" spans="1:5">
+      <c r="A59" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" s="4" customFormat="1" spans="1:5">
+      <c r="A60" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" s="4" customFormat="1" spans="1:5">
+      <c r="A61" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" s="4" customFormat="1" spans="1:5">
+      <c r="A62" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" s="4" customFormat="1" spans="1:5">
+      <c r="A63" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="10" t="s">
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" s="5" customFormat="1" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" s="5" customFormat="1" spans="1:5">
-      <c r="A30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" s="5" customFormat="1" spans="1:5">
-      <c r="A31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" s="5" customFormat="1" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" s="5" customFormat="1" spans="1:5">
-      <c r="A33" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="1:5">
-      <c r="A34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" s="5" customFormat="1" spans="1:5">
-      <c r="A40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" s="5" customFormat="1" spans="1:5">
-      <c r="A41" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="1:5">
-      <c r="A42" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" s="5" customFormat="1" spans="1:5">
-      <c r="A43" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="1:5">
-      <c r="A44" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" s="5" customFormat="1" spans="1:5">
-      <c r="A45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="1:5">
-      <c r="A46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="1:5">
-      <c r="A47" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="1:5">
-      <c r="A48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="1:5">
-      <c r="A49" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="1:5">
-      <c r="A50" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="1:5">
-      <c r="A51" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="11"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="1:5">
-      <c r="A52" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" s="5" customFormat="1" spans="1:5">
-      <c r="A53" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" s="5" customFormat="1" spans="1:5">
-      <c r="A54" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" s="5" customFormat="1" spans="1:5">
-      <c r="A55" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" s="5" customFormat="1" spans="1:5">
-      <c r="A56" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" s="5" customFormat="1" spans="1:5">
-      <c r="A57" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" s="5" customFormat="1" spans="1:5">
-      <c r="A58" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" s="5" customFormat="1" spans="1:5">
-      <c r="A59" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" s="5" customFormat="1" spans="1:5">
-      <c r="A60" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" s="5" customFormat="1" spans="1:5">
-      <c r="A61" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" s="5" customFormat="1" spans="1:5">
-      <c r="A62" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" s="5" customFormat="1" spans="1:5">
-      <c r="A63" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B64" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8" t="s">
-        <v>87</v>
+      <c r="A69" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8" t="s">
-        <v>87</v>
+      <c r="A70" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8" t="s">
-        <v>87</v>
+      <c r="A71" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8" t="s">
-        <v>87</v>
+      <c r="A72" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8" t="s">
-        <v>87</v>
+      <c r="A73" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8" t="s">
-        <v>87</v>
+      <c r="A74" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8" t="s">
-        <v>87</v>
+      <c r="A75" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8" t="s">
-        <v>87</v>
+      <c r="A76" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E81" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E82" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E94" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E95" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E96" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E98" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B99" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E99" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E101" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E105" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E106" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C109" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E109" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E110" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C112" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E112" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E114" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C115" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E115" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C116" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E116" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C117" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B118" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E119" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B120" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C120" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E121" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E122" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B123" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E123" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B124" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C124" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E124" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B125" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E125" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B126" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E126" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E127" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B128" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C128" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E128" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E129" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E130" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C131" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E131" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C132" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E132" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B133" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E133" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B134" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E134" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B135" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C135" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E135" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E136" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B137" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C137" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E137" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E138" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B139" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C139" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E139" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B140" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C140" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E140" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C141" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E141" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C142" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E142" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B143" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C143" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E143" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C144" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E144" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B145" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E145" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B146" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E146" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E147" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C148" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E148" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E149" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B150" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E150" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C151" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E151" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E152" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B153" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E153" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C154" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E154" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E155" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B156" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C156" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E156" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B157" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B158" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E158" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C159" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E159" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B160" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E160" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B161" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C161" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E161" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B162" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C162" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E162" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B163" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C163" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E163" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B164" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C164" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E164" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C165" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E165" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B166" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C166" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E166" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B167" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C167" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E167" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B168" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C168" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E168" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B169" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C169" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E169" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B170" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C170" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E170" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B171" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C171" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E171" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C172" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E172" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B174">
         <v>101</v>
@@ -4786,12 +4776,12 @@
         <v>101</v>
       </c>
       <c r="F174" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B175">
         <v>102</v>
@@ -4800,12 +4790,12 @@
         <v>102</v>
       </c>
       <c r="F175" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B176">
         <v>103</v>
@@ -4814,12 +4804,12 @@
         <v>103</v>
       </c>
       <c r="F176" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B177">
         <v>104</v>
@@ -4828,12 +4818,12 @@
         <v>104</v>
       </c>
       <c r="F177" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B178">
         <v>105</v>
@@ -4842,12 +4832,12 @@
         <v>105</v>
       </c>
       <c r="F178" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B179">
         <v>106</v>
@@ -4856,12 +4846,12 @@
         <v>106</v>
       </c>
       <c r="F179" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B180">
         <v>107</v>
@@ -4870,12 +4860,12 @@
         <v>107</v>
       </c>
       <c r="F180" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B181">
         <v>108</v>
@@ -4884,12 +4874,12 @@
         <v>108</v>
       </c>
       <c r="F181" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B182">
         <v>109</v>
@@ -4898,12 +4888,12 @@
         <v>109</v>
       </c>
       <c r="F182" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B183">
         <v>110</v>
@@ -4912,12 +4902,12 @@
         <v>110</v>
       </c>
       <c r="F183" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B184">
         <v>111</v>
@@ -4926,12 +4916,12 @@
         <v>111</v>
       </c>
       <c r="F184" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B185">
         <v>112</v>
@@ -4940,12 +4930,12 @@
         <v>112</v>
       </c>
       <c r="F185" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B186">
         <v>113</v>
@@ -4954,12 +4944,12 @@
         <v>113</v>
       </c>
       <c r="F186" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B187">
         <v>114</v>
@@ -4968,12 +4958,12 @@
         <v>114</v>
       </c>
       <c r="F187" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B188">
         <v>115</v>
@@ -4982,12 +4972,12 @@
         <v>115</v>
       </c>
       <c r="F188" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B189">
         <v>116</v>
@@ -4996,12 +4986,12 @@
         <v>116</v>
       </c>
       <c r="F189" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B190">
         <v>117</v>
@@ -5010,12 +5000,12 @@
         <v>117</v>
       </c>
       <c r="F190" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B191">
         <v>118</v>
@@ -5024,12 +5014,12 @@
         <v>118</v>
       </c>
       <c r="F191" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B192">
         <v>119</v>
@@ -5038,12 +5028,12 @@
         <v>119</v>
       </c>
       <c r="F192" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B193">
         <v>120</v>
@@ -5052,12 +5042,12 @@
         <v>120</v>
       </c>
       <c r="F193" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B194">
         <v>121</v>
@@ -5066,12 +5056,12 @@
         <v>121</v>
       </c>
       <c r="F194" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B195">
         <v>122</v>
@@ -5080,12 +5070,12 @@
         <v>122</v>
       </c>
       <c r="F195" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B196">
         <v>123</v>
@@ -5094,12 +5084,12 @@
         <v>123</v>
       </c>
       <c r="F196" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B197">
         <v>124</v>
@@ -5108,12 +5098,12 @@
         <v>124</v>
       </c>
       <c r="F197" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B198">
         <v>125</v>
@@ -5122,12 +5112,12 @@
         <v>125</v>
       </c>
       <c r="F198" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B199">
         <v>126</v>
@@ -5136,12 +5126,12 @@
         <v>126</v>
       </c>
       <c r="F199" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B200">
         <v>127</v>
@@ -5150,12 +5140,12 @@
         <v>127</v>
       </c>
       <c r="F200" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B201">
         <v>128</v>
@@ -5164,12 +5154,12 @@
         <v>128</v>
       </c>
       <c r="F201" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B202">
         <v>129</v>
@@ -5178,12 +5168,12 @@
         <v>129</v>
       </c>
       <c r="F202" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B203">
         <v>130</v>
@@ -5192,12 +5182,12 @@
         <v>130</v>
       </c>
       <c r="F203" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B204">
         <v>131</v>
@@ -5206,12 +5196,12 @@
         <v>131</v>
       </c>
       <c r="F204" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B205">
         <v>132</v>
@@ -5220,12 +5210,12 @@
         <v>132</v>
       </c>
       <c r="F205" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B206">
         <v>133</v>
@@ -5234,12 +5224,12 @@
         <v>133</v>
       </c>
       <c r="F206" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B207">
         <v>134</v>
@@ -5248,12 +5238,12 @@
         <v>134</v>
       </c>
       <c r="F207" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B208">
         <v>135</v>
@@ -5262,12 +5252,12 @@
         <v>135</v>
       </c>
       <c r="F208" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B209">
         <v>136</v>
@@ -5276,12 +5266,12 @@
         <v>136</v>
       </c>
       <c r="F209" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B210">
         <v>137</v>
@@ -5290,12 +5280,12 @@
         <v>137</v>
       </c>
       <c r="F210" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B211">
         <v>138</v>
@@ -5304,12 +5294,12 @@
         <v>138</v>
       </c>
       <c r="F211" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B212">
         <v>139</v>
@@ -5318,12 +5308,12 @@
         <v>139</v>
       </c>
       <c r="F212" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B213">
         <v>140</v>
@@ -5332,12 +5322,12 @@
         <v>140</v>
       </c>
       <c r="F213" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B214">
         <v>141</v>
@@ -5346,12 +5336,12 @@
         <v>141</v>
       </c>
       <c r="F214" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B215">
         <v>142</v>
@@ -5360,12 +5350,12 @@
         <v>142</v>
       </c>
       <c r="F215" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B216">
         <v>143</v>
@@ -5374,12 +5364,12 @@
         <v>143</v>
       </c>
       <c r="F216" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B217">
         <v>144</v>
@@ -5388,12 +5378,12 @@
         <v>144</v>
       </c>
       <c r="F217" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B218">
         <v>145</v>
@@ -5402,12 +5392,12 @@
         <v>145</v>
       </c>
       <c r="F218" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B219">
         <v>146</v>
@@ -5416,12 +5406,12 @@
         <v>146</v>
       </c>
       <c r="F219" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B220">
         <v>147</v>
@@ -5430,12 +5420,12 @@
         <v>147</v>
       </c>
       <c r="F220" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B221">
         <v>148</v>
@@ -5444,12 +5434,12 @@
         <v>148</v>
       </c>
       <c r="F221" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B222">
         <v>149</v>
@@ -5458,12 +5448,12 @@
         <v>149</v>
       </c>
       <c r="F222" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B223">
         <v>150</v>
@@ -5472,12 +5462,12 @@
         <v>150</v>
       </c>
       <c r="F223" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B224">
         <v>151</v>
@@ -5486,12 +5476,12 @@
         <v>151</v>
       </c>
       <c r="F224" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B225">
         <v>152</v>
@@ -5500,12 +5490,12 @@
         <v>152</v>
       </c>
       <c r="F225" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B226">
         <v>153</v>
@@ -5514,12 +5504,12 @@
         <v>153</v>
       </c>
       <c r="F226" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B227">
         <v>154</v>
@@ -5528,12 +5518,12 @@
         <v>154</v>
       </c>
       <c r="F227" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B228">
         <v>155</v>
@@ -5542,12 +5532,12 @@
         <v>155</v>
       </c>
       <c r="F228" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B229">
         <v>156</v>
@@ -5556,12 +5546,12 @@
         <v>156</v>
       </c>
       <c r="F229" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B230">
         <v>157</v>
@@ -5570,12 +5560,12 @@
         <v>157</v>
       </c>
       <c r="F230" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B231">
         <v>158</v>
@@ -5584,12 +5574,12 @@
         <v>158</v>
       </c>
       <c r="F231" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B232">
         <v>159</v>
@@ -5598,12 +5588,12 @@
         <v>159</v>
       </c>
       <c r="F232" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B233">
         <v>160</v>
@@ -5612,12 +5602,12 @@
         <v>160</v>
       </c>
       <c r="F233" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B234">
         <v>161</v>
@@ -5626,12 +5616,12 @@
         <v>161</v>
       </c>
       <c r="F234" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B235">
         <v>162</v>
@@ -5640,12 +5630,12 @@
         <v>162</v>
       </c>
       <c r="F235" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B236">
         <v>163</v>
@@ -5654,12 +5644,12 @@
         <v>163</v>
       </c>
       <c r="F236" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B237">
         <v>164</v>
@@ -5668,12 +5658,12 @@
         <v>164</v>
       </c>
       <c r="F237" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>165</v>
@@ -5682,12 +5672,12 @@
         <v>165</v>
       </c>
       <c r="F238" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B239">
         <v>166</v>
@@ -5696,12 +5686,12 @@
         <v>166</v>
       </c>
       <c r="F239" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B240">
         <v>167</v>
@@ -5710,12 +5700,12 @@
         <v>167</v>
       </c>
       <c r="F240" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B241">
         <v>168</v>
@@ -5724,12 +5714,12 @@
         <v>168</v>
       </c>
       <c r="F241" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B242">
         <v>169</v>
@@ -5738,12 +5728,12 @@
         <v>169</v>
       </c>
       <c r="F242" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B243">
         <v>170</v>
@@ -5752,12 +5742,12 @@
         <v>170</v>
       </c>
       <c r="F243" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B244">
         <v>171</v>
@@ -5766,12 +5756,12 @@
         <v>171</v>
       </c>
       <c r="F244" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B245">
         <v>172</v>
@@ -5780,12 +5770,12 @@
         <v>172</v>
       </c>
       <c r="F245" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B246">
         <v>173</v>
@@ -5794,12 +5784,12 @@
         <v>173</v>
       </c>
       <c r="F246" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B247">
         <v>174</v>
@@ -5808,12 +5798,12 @@
         <v>174</v>
       </c>
       <c r="F247" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B248">
         <v>175</v>
@@ -5822,12 +5812,12 @@
         <v>175</v>
       </c>
       <c r="F248" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B249">
         <v>176</v>
@@ -5836,12 +5826,12 @@
         <v>176</v>
       </c>
       <c r="F249" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B250">
         <v>177</v>
@@ -5850,12 +5840,12 @@
         <v>177</v>
       </c>
       <c r="F250" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B251">
         <v>178</v>
@@ -5864,12 +5854,12 @@
         <v>178</v>
       </c>
       <c r="F251" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B252">
         <v>179</v>
@@ -5878,12 +5868,12 @@
         <v>179</v>
       </c>
       <c r="F252" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B253">
         <v>180</v>
@@ -5892,12 +5882,12 @@
         <v>180</v>
       </c>
       <c r="F253" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B254">
         <v>181</v>
@@ -5906,12 +5896,12 @@
         <v>181</v>
       </c>
       <c r="F254" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B255">
         <v>182</v>
@@ -5920,12 +5910,12 @@
         <v>182</v>
       </c>
       <c r="F255" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B256">
         <v>183</v>
@@ -5934,12 +5924,12 @@
         <v>183</v>
       </c>
       <c r="F256" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B257">
         <v>184</v>
@@ -5948,12 +5938,12 @@
         <v>184</v>
       </c>
       <c r="F257" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B258">
         <v>185</v>
@@ -5962,12 +5952,12 @@
         <v>185</v>
       </c>
       <c r="F258" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B259">
         <v>186</v>
@@ -5976,12 +5966,12 @@
         <v>186</v>
       </c>
       <c r="F259" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B260">
         <v>187</v>
@@ -5990,12 +5980,12 @@
         <v>187</v>
       </c>
       <c r="F260" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>188</v>
@@ -6004,12 +5994,12 @@
         <v>188</v>
       </c>
       <c r="F261" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B262">
         <v>189</v>
@@ -6018,12 +6008,12 @@
         <v>189</v>
       </c>
       <c r="F262" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B263">
         <v>190</v>
@@ -6032,12 +6022,12 @@
         <v>190</v>
       </c>
       <c r="F263" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B264">
         <v>191</v>
@@ -6046,12 +6036,12 @@
         <v>191</v>
       </c>
       <c r="F264" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B265">
         <v>192</v>
@@ -6060,12 +6050,12 @@
         <v>192</v>
       </c>
       <c r="F265" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B266">
         <v>193</v>
@@ -6074,12 +6064,12 @@
         <v>193</v>
       </c>
       <c r="F266" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B267">
         <v>194</v>
@@ -6088,12 +6078,12 @@
         <v>194</v>
       </c>
       <c r="F267" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B268">
         <v>195</v>
@@ -6102,7 +6092,7 @@
         <v>195</v>
       </c>
       <c r="F268" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -6131,24 +6121,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="174">
   <si>
     <t>type</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Agatu</t>
   </si>
   <si>
-    <t>Bukuru</t>
-  </si>
-  <si>
     <t>Buruku</t>
   </si>
   <si>
@@ -432,22 +429,19 @@
     <t>Yushewe</t>
   </si>
   <si>
-    <t>Mbagir III</t>
-  </si>
-  <si>
-    <t>IDP CAMP 1 DAUDU</t>
-  </si>
-  <si>
-    <t>GUMA</t>
-  </si>
-  <si>
-    <t>IDP CAMP 2 DAUDU</t>
-  </si>
-  <si>
-    <t>IDP CAMP 3 DAUDU</t>
-  </si>
-  <si>
-    <t>GBAJIMBA IDP CAMP</t>
+    <t>Mbagir Iii</t>
+  </si>
+  <si>
+    <t>Idp Camp 1 Daudu</t>
+  </si>
+  <si>
+    <t>Idp Camp 2 Daudu</t>
+  </si>
+  <si>
+    <t>Idp Camp 3 Daudu</t>
+  </si>
+  <si>
+    <t>Gbajimba Idp Camp</t>
   </si>
   <si>
     <t>Yonov</t>
@@ -480,31 +474,22 @@
     <t>Waya</t>
   </si>
   <si>
-    <t>REFUGEE SETTLEMENT</t>
-  </si>
-  <si>
-    <t>KWANDE</t>
+    <t>Refugee Settlement</t>
   </si>
   <si>
     <t>Mbayongo Logo 1</t>
   </si>
   <si>
-    <t>IDP CAMP UGBA</t>
-  </si>
-  <si>
-    <t>LOGO</t>
-  </si>
-  <si>
-    <t>IDP CAMP ANYIIN</t>
+    <t>Idp Camp Ugba</t>
+  </si>
+  <si>
+    <t>Idp Camp Anyiin</t>
   </si>
   <si>
     <t>Mbakyongu</t>
   </si>
   <si>
-    <t>IDP CAMP ABAGANA</t>
-  </si>
-  <si>
-    <t>MAKURDI</t>
+    <t>Idp Camp Abagana</t>
   </si>
   <si>
     <t>Ikingo</t>
@@ -546,10 +531,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) OEM - 1. Site Form V2</t>
-  </si>
-  <si>
-    <t>ng_oncho_oem_1_site_202112_v2</t>
+    <t>(Dec 2021) OEM - 1. Site Form V2.1</t>
+  </si>
+  <si>
+    <t>ng_oncho_oem_1_site_202112_v2_1</t>
   </si>
   <si>
     <t>English</t>
@@ -560,9 +545,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -603,76 +588,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -695,10 +610,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,16 +648,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,21 +733,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,24 +754,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -799,7 +766,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +880,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,127 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,21 +993,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1047,31 +1017,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,165 +1062,179 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2095,12 +2080,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2650,20 +2635,19 @@
       </c>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" s="4" customFormat="1" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="7" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="10"/>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
@@ -2690,7 +2674,7 @@
         <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2746,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2760,7 +2744,7 @@
         <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2774,7 +2758,7 @@
         <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2788,7 +2772,7 @@
         <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2802,7 +2786,7 @@
         <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2810,13 +2794,13 @@
         <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2824,13 +2808,13 @@
         <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2838,13 +2822,13 @@
         <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2852,10 +2836,10 @@
         <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
         <v>117</v>
@@ -2866,13 +2850,13 @@
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2880,10 +2864,10 @@
         <v>90</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
         <v>118</v>
@@ -2894,13 +2878,13 @@
         <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2908,10 +2892,10 @@
         <v>90</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E60" t="s">
         <v>119</v>
@@ -2922,10 +2906,10 @@
         <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E61" t="s">
         <v>120</v>
@@ -2936,13 +2920,13 @@
         <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2950,13 +2934,13 @@
         <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2964,13 +2948,13 @@
         <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2978,13 +2962,13 @@
         <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2992,13 +2976,13 @@
         <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3006,13 +2990,13 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3020,13 +3004,13 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3034,13 +3018,13 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3048,13 +3032,13 @@
         <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3062,13 +3046,13 @@
         <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3076,10 +3060,10 @@
         <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
         <v>124</v>
@@ -3090,10 +3074,10 @@
         <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
         <v>125</v>
@@ -3104,13 +3088,13 @@
         <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3118,10 +3102,10 @@
         <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E75" t="s">
         <v>126</v>
@@ -3132,10 +3116,10 @@
         <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
         <v>127</v>
@@ -3146,13 +3130,13 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3160,10 +3144,10 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
         <v>128</v>
@@ -3174,38 +3158,38 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" t="s">
-        <v>171</v>
-      </c>
-      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>100</v>
+      </c>
+      <c r="F81" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B82">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F82" t="s">
         <v>130</v>
@@ -3213,13 +3197,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F83" t="s">
         <v>131</v>
@@ -3227,13 +3211,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B84">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F84" t="s">
         <v>132</v>
@@ -3241,13 +3225,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B85">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F85" t="s">
         <v>133</v>
@@ -3255,13 +3239,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B86">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F86" t="s">
         <v>134</v>
@@ -3269,13 +3253,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B87">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
         <v>135</v>
@@ -3283,13 +3267,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B88">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C88">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F88" t="s">
         <v>136</v>
@@ -3297,13 +3281,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B89">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F89" t="s">
         <v>137</v>
@@ -3311,13 +3295,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B90">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C90">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
         <v>138</v>
@@ -3325,13 +3309,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B91">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C91">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F91" t="s">
         <v>139</v>
@@ -3339,394 +3323,380 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B92">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B93">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C93">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B94">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B95">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B96">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B97">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C97">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B98">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C98">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B99">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C99">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B100">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C100">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B101">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C101">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C102">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B103">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C103">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B104">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C104">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B105">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C105">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B106">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C106">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F106" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B107">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C107">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F107" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B108">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C108">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F108" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B109">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C109">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B110">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C110">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F110" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B111">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C111">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F111" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B112">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C112">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F112" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B113">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F113" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B114">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C114">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F114" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B115">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C115">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B116">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C116">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F116" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B117">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C117">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F117" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B118">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C118">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F118" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
-        <v>172</v>
-      </c>
-      <c r="B119">
-        <v>137</v>
-      </c>
-      <c r="C119">
-        <v>137</v>
-      </c>
-      <c r="F119" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3743,7 +3713,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3755,24 +3725,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="175">
   <si>
     <t>type</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Sub-Community/Village</t>
+  </si>
+  <si>
+    <t>IDP/Refugee camp</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -1238,7 +1241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1260,6 +1263,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1629,43 +1633,43 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1673,74 +1677,74 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1748,24 +1752,24 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="s">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1773,66 +1777,66 @@
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+    <row r="7" s="15" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="J8" s="16" t="s">
+      <c r="D8" s="18"/>
+      <c r="J8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1843,12 +1847,12 @@
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="H9" s="14"/>
-      <c r="J9" s="16" t="s">
+      <c r="D9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1862,9 +1866,9 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="H10" s="14"/>
-      <c r="J10" s="16" t="s">
+      <c r="D10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1881,7 +1885,7 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1892,10 +1896,10 @@
       <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1909,7 +1913,7 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1923,7 +1927,7 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1937,7 +1941,7 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1951,7 +1955,7 @@
       <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1965,7 +1969,7 @@
       <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1982,7 +1986,7 @@
       <c r="H18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1999,7 +2003,7 @@
       <c r="H19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2022,7 +2026,7 @@
       <c r="H20" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2039,7 +2043,7 @@
       <c r="I21" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2058,7 +2062,7 @@
       <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2066,7 +2070,7 @@
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="18" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2080,12 +2084,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2109,7 +2113,7 @@
       <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2158,28 +2162,28 @@
       <c r="E4" s="10"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="7"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>97</v>
@@ -2191,28 +2195,28 @@
       <c r="E7" s="10"/>
     </row>
     <row r="8" s="4" customFormat="1" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" s="4" customFormat="1" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="7"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>100</v>
@@ -2225,7 +2229,7 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>101</v>
@@ -2238,7 +2242,7 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>102</v>
@@ -2251,7 +2255,7 @@
     </row>
     <row r="13" s="4" customFormat="1" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>103</v>
@@ -2264,7 +2268,7 @@
     </row>
     <row r="14" s="4" customFormat="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>104</v>
@@ -2277,7 +2281,7 @@
     </row>
     <row r="15" s="4" customFormat="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>105</v>
@@ -2290,7 +2294,7 @@
     </row>
     <row r="16" s="4" customFormat="1" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>106</v>
@@ -2303,7 +2307,7 @@
     </row>
     <row r="17" s="4" customFormat="1" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>107</v>
@@ -2316,7 +2320,7 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>108</v>
@@ -2329,7 +2333,7 @@
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>109</v>
@@ -2342,7 +2346,7 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>110</v>
@@ -2354,45 +2358,43 @@
       <c r="E20" s="10"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="7"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:5">
-      <c r="A24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="10"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:5">
@@ -2406,7 +2408,7 @@
         <v>113</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" s="10"/>
     </row>
@@ -2421,7 +2423,7 @@
         <v>114</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="10"/>
     </row>
@@ -2436,7 +2438,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -2451,7 +2453,7 @@
         <v>116</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -2466,7 +2468,7 @@
         <v>117</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" s="10"/>
     </row>
@@ -2481,7 +2483,7 @@
         <v>118</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" s="10"/>
     </row>
@@ -2496,7 +2498,7 @@
         <v>119</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -2511,7 +2513,7 @@
         <v>120</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -2526,7 +2528,7 @@
         <v>121</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -2541,7 +2543,7 @@
         <v>122</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -2556,7 +2558,7 @@
         <v>123</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -2571,7 +2573,7 @@
         <v>124</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -2586,7 +2588,7 @@
         <v>125</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -2601,7 +2603,7 @@
         <v>126</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" s="10"/>
     </row>
@@ -2616,7 +2618,7 @@
         <v>127</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -2631,23 +2633,24 @@
         <v>128</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" s="10"/>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="41" s="4" customFormat="1" spans="1:5">
+      <c r="A41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C41" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E42" t="s">
+      <c r="D41" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
@@ -2660,7 +2663,7 @@
         <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2688,7 +2691,7 @@
         <v>132</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2730,7 +2733,7 @@
         <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2744,7 +2747,7 @@
         <v>136</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2758,7 +2761,7 @@
         <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2772,7 +2775,7 @@
         <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2786,7 +2789,7 @@
         <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2800,7 +2803,7 @@
         <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2814,7 +2817,7 @@
         <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2856,7 +2859,7 @@
         <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2884,7 +2887,7 @@
         <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2926,7 +2929,7 @@
         <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2940,7 +2943,7 @@
         <v>150</v>
       </c>
       <c r="E63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2954,7 +2957,7 @@
         <v>151</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2968,7 +2971,7 @@
         <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2996,7 +2999,7 @@
         <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3010,7 +3013,7 @@
         <v>155</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3038,7 +3041,7 @@
         <v>157</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3094,7 +3097,7 @@
         <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3136,7 +3139,7 @@
         <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3164,32 +3167,32 @@
         <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
         <v>167</v>
       </c>
-      <c r="B81">
-        <v>100</v>
-      </c>
-      <c r="C81">
-        <v>100</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B82">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F82" t="s">
         <v>130</v>
@@ -3197,13 +3200,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B83">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F83" t="s">
         <v>131</v>
@@ -3211,13 +3214,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B84">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F84" t="s">
         <v>132</v>
@@ -3225,13 +3228,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F85" t="s">
         <v>133</v>
@@ -3239,13 +3242,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F86" t="s">
         <v>134</v>
@@ -3253,13 +3256,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B87">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F87" t="s">
         <v>135</v>
@@ -3267,13 +3270,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B88">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
         <v>136</v>
@@ -3281,13 +3284,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B89">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F89" t="s">
         <v>137</v>
@@ -3295,13 +3298,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B90">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F90" t="s">
         <v>138</v>
@@ -3309,13 +3312,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B91">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F91" t="s">
         <v>139</v>
@@ -3323,13 +3326,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B92">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F92" t="s">
         <v>140</v>
@@ -3337,13 +3340,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B93">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C93">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F93" t="s">
         <v>141</v>
@@ -3351,13 +3354,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B94">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F94" t="s">
         <v>142</v>
@@ -3365,13 +3368,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B95">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C95">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
         <v>143</v>
@@ -3379,13 +3382,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B96">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F96" t="s">
         <v>144</v>
@@ -3393,13 +3396,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B97">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F97" t="s">
         <v>145</v>
@@ -3407,13 +3410,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B98">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F98" t="s">
         <v>146</v>
@@ -3421,13 +3424,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B99">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F99" t="s">
         <v>147</v>
@@ -3435,13 +3438,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B100">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C100">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F100" t="s">
         <v>148</v>
@@ -3449,13 +3452,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B101">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C101">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F101" t="s">
         <v>149</v>
@@ -3463,13 +3466,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B102">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F102" t="s">
         <v>150</v>
@@ -3477,13 +3480,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B103">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F103" t="s">
         <v>151</v>
@@ -3491,13 +3494,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B104">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C104">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F104" t="s">
         <v>152</v>
@@ -3505,13 +3508,13 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B105">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F105" t="s">
         <v>153</v>
@@ -3519,13 +3522,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B106">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C106">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F106" t="s">
         <v>154</v>
@@ -3533,13 +3536,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B107">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F107" t="s">
         <v>155</v>
@@ -3547,13 +3550,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B108">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F108" t="s">
         <v>156</v>
@@ -3561,13 +3564,13 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B109">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F109" t="s">
         <v>157</v>
@@ -3575,13 +3578,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B110">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F110" t="s">
         <v>158</v>
@@ -3589,13 +3592,13 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B111">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F111" t="s">
         <v>159</v>
@@ -3603,13 +3606,13 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B112">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F112" t="s">
         <v>160</v>
@@ -3617,13 +3620,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B113">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F113" t="s">
         <v>161</v>
@@ -3631,13 +3634,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B114">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F114" t="s">
         <v>162</v>
@@ -3645,13 +3648,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B115">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F115" t="s">
         <v>163</v>
@@ -3659,13 +3662,13 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B116">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F116" t="s">
         <v>164</v>
@@ -3673,13 +3676,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B117">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F117" t="s">
         <v>165</v>
@@ -3687,16 +3690,30 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B118">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F118" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119">
+        <v>137</v>
+      </c>
+      <c r="C119">
+        <v>137</v>
+      </c>
+      <c r="F119" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3725,24 +3742,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
+++ b/ONCHO/OEM/Nigeria/December 2021/ng_oncho_oem_1_site_202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
     <t>Okpokwu</t>
   </si>
   <si>
-    <t>Oturkpo</t>
+    <t>Otukpo</t>
   </si>
   <si>
     <t>Ukum</t>
@@ -408,120 +408,120 @@
     <t>Ushongo</t>
   </si>
   <si>
+    <t>Ogbai (Ikpele)</t>
+  </si>
+  <si>
     <t>Oweto</t>
   </si>
   <si>
-    <t>Ogbai</t>
-  </si>
-  <si>
     <t>Dogo</t>
   </si>
   <si>
     <t>Ugbema</t>
   </si>
   <si>
+    <t>Akpagher</t>
+  </si>
+  <si>
+    <t>Gbajimba Idp Camp</t>
+  </si>
+  <si>
+    <t>Idp Camp 1 Daudu</t>
+  </si>
+  <si>
+    <t>Idp Camp 2 Daudu (Uikpam)</t>
+  </si>
+  <si>
+    <t>Idp Camp 3 Daudu</t>
+  </si>
+  <si>
+    <t>Tyohembe</t>
+  </si>
+  <si>
+    <t>Udei</t>
+  </si>
+  <si>
+    <t>Unyiande</t>
+  </si>
+  <si>
+    <t>Anchiha</t>
+  </si>
+  <si>
+    <t>Mbaagir</t>
+  </si>
+  <si>
+    <t>Idp Camp Naka</t>
+  </si>
+  <si>
+    <t>Nagi</t>
+  </si>
+  <si>
+    <t>Naka</t>
+  </si>
+  <si>
+    <t>Amaafu</t>
+  </si>
+  <si>
+    <t>Joo-Mbatyough</t>
+  </si>
+  <si>
+    <t>Ikpeakor</t>
+  </si>
+  <si>
     <t>Achia</t>
   </si>
   <si>
-    <t>Tyondun</t>
-  </si>
-  <si>
-    <t>Udei</t>
-  </si>
-  <si>
-    <t>Yushewe</t>
-  </si>
-  <si>
-    <t>Mbagir Iii</t>
-  </si>
-  <si>
-    <t>Idp Camp 1 Daudu</t>
-  </si>
-  <si>
-    <t>Idp Camp 2 Daudu</t>
-  </si>
-  <si>
-    <t>Idp Camp 3 Daudu</t>
-  </si>
-  <si>
-    <t>Gbajimba Idp Camp</t>
-  </si>
-  <si>
-    <t>Yonov</t>
-  </si>
-  <si>
-    <t>Ibor</t>
-  </si>
-  <si>
-    <t>Ududu</t>
-  </si>
-  <si>
-    <t>Mbamtsar</t>
-  </si>
-  <si>
-    <t>Tor Donga</t>
-  </si>
-  <si>
-    <t>Ikiriye Adum</t>
-  </si>
-  <si>
     <t>Gesa</t>
   </si>
   <si>
     <t>Koti</t>
   </si>
   <si>
+    <t>Refugee Settlement (Ikyogen)</t>
+  </si>
+  <si>
+    <t>Waya</t>
+  </si>
+  <si>
+    <t>Idp Camp Anyiin</t>
+  </si>
+  <si>
+    <t>Mbayongo Logo 1</t>
+  </si>
+  <si>
+    <t>Adaka</t>
+  </si>
+  <si>
+    <t>Idp Camp Abagana</t>
+  </si>
+  <si>
+    <t>Ekingo</t>
+  </si>
+  <si>
+    <t>Ojokwe</t>
+  </si>
+  <si>
+    <t>Ichama Central</t>
+  </si>
+  <si>
+    <t>Odessassa I</t>
+  </si>
+  <si>
+    <t>Akpachi Ugboju</t>
+  </si>
+  <si>
+    <t>Bede</t>
+  </si>
+  <si>
+    <t>Tse Gube</t>
+  </si>
+  <si>
+    <t>Akerior</t>
+  </si>
+  <si>
     <t>Mannor</t>
   </si>
   <si>
-    <t>Waya</t>
-  </si>
-  <si>
-    <t>Refugee Settlement</t>
-  </si>
-  <si>
-    <t>Mbayongo Logo 1</t>
-  </si>
-  <si>
-    <t>Idp Camp Ugba</t>
-  </si>
-  <si>
-    <t>Idp Camp Anyiin</t>
-  </si>
-  <si>
-    <t>Mbakyongu</t>
-  </si>
-  <si>
-    <t>Idp Camp Abagana</t>
-  </si>
-  <si>
-    <t>Ikingo</t>
-  </si>
-  <si>
-    <t>Ojekwe</t>
-  </si>
-  <si>
-    <t>Ichama</t>
-  </si>
-  <si>
-    <t>Ugbokolo</t>
-  </si>
-  <si>
-    <t>Akpachi</t>
-  </si>
-  <si>
-    <t>Bede</t>
-  </si>
-  <si>
-    <t>Tse Gyuba</t>
-  </si>
-  <si>
-    <t>Akpagher</t>
-  </si>
-  <si>
-    <t>Tyoban</t>
-  </si>
-  <si>
     <t>community_id</t>
   </si>
   <si>
@@ -534,10 +534,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Dec 2021) OEM - 1. Site Form V2.1</t>
-  </si>
-  <si>
-    <t>ng_oncho_oem_1_site_202112_v2_1</t>
+    <t>(Dec 2021) OEM - 1. Site Form V2.2</t>
+  </si>
+  <si>
+    <t>ng_oncho_oem_1_site_202112_v2_2</t>
   </si>
   <si>
     <t>English</t>
@@ -548,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -591,9 +591,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,23 +628,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,7 +660,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -652,15 +676,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,28 +697,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -712,16 +706,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,9 +727,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,7 +757,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,43 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +835,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,19 +865,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,85 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,15 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1020,6 +1011,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1031,21 +1040,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,9 +1061,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,165 +1079,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1263,7 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1633,43 +1632,43 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1677,74 +1676,74 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:12">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1752,24 +1751,24 @@
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1777,66 +1776,66 @@
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+    <row r="7" s="14" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="J8" s="17" t="s">
+      <c r="D8" s="17"/>
+      <c r="J8" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1847,12 +1846,12 @@
       <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="17" t="s">
+      <c r="D9" s="17"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1866,9 +1865,9 @@
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="17" t="s">
+      <c r="D10" s="17"/>
+      <c r="H10" s="14"/>
+      <c r="J10" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1885,7 +1884,7 @@
       <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1896,10 +1895,10 @@
       <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1913,7 +1912,7 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1927,7 +1926,7 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1941,7 +1940,7 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1955,7 +1954,7 @@
       <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1969,7 +1968,7 @@
       <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1986,7 +1985,7 @@
       <c r="H18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2003,7 +2002,7 @@
       <c r="H19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2026,7 +2025,7 @@
       <c r="H20" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2043,7 +2042,7 @@
       <c r="I21" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2062,7 +2061,7 @@
       <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2070,7 +2069,7 @@
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2086,10 +2085,10 @@
   <sheetPr/>
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82:F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2113,7 +2112,7 @@
       <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2381,7 +2380,7 @@
       <c r="A23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2392,7 +2391,7 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:5">
       <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10"/>
@@ -2831,7 +2830,7 @@
         <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2887,7 +2886,7 @@
         <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2915,7 +2914,7 @@
         <v>148</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2929,7 +2928,7 @@
         <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2999,7 +2998,7 @@
         <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3189,10 +3188,10 @@
         <v>168</v>
       </c>
       <c r="B82">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F82" t="s">
         <v>130</v>
@@ -3203,10 +3202,10 @@
         <v>168</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C83">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F83" t="s">
         <v>131</v>
@@ -3217,10 +3216,10 @@
         <v>168</v>
       </c>
       <c r="B84">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F84" t="s">
         <v>132</v>
@@ -3231,10 +3230,10 @@
         <v>168</v>
       </c>
       <c r="B85">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C85">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F85" t="s">
         <v>133</v>
@@ -3245,10 +3244,10 @@
         <v>168</v>
       </c>
       <c r="B86">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F86" t="s">
         <v>134</v>
@@ -3259,10 +3258,10 @@
         <v>168</v>
       </c>
       <c r="B87">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
         <v>135</v>
@@ -3273,10 +3272,10 @@
         <v>168</v>
       </c>
       <c r="B88">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C88">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F88" t="s">
         <v>136</v>
@@ -3287,10 +3286,10 @@
         <v>168</v>
       </c>
       <c r="B89">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F89" t="s">
         <v>137</v>
@@ -3301,10 +3300,10 @@
         <v>168</v>
       </c>
       <c r="B90">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C90">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
         <v>138</v>
@@ -3315,10 +3314,10 @@
         <v>168</v>
       </c>
       <c r="B91">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C91">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F91" t="s">
         <v>139</v>
@@ -3329,10 +3328,10 @@
         <v>168</v>
       </c>
       <c r="B92">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
         <v>140</v>
@@ -3343,10 +3342,10 @@
         <v>168</v>
       </c>
       <c r="B93">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C93">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F93" t="s">
         <v>141</v>
@@ -3357,10 +3356,10 @@
         <v>168</v>
       </c>
       <c r="B94">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F94" t="s">
         <v>142</v>
@@ -3371,10 +3370,10 @@
         <v>168</v>
       </c>
       <c r="B95">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F95" t="s">
         <v>143</v>
@@ -3385,10 +3384,10 @@
         <v>168</v>
       </c>
       <c r="B96">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C96">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F96" t="s">
         <v>144</v>
@@ -3399,10 +3398,10 @@
         <v>168</v>
       </c>
       <c r="B97">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C97">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F97" t="s">
         <v>145</v>
@@ -3413,10 +3412,10 @@
         <v>168</v>
       </c>
       <c r="B98">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C98">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F98" t="s">
         <v>146</v>
@@ -3427,10 +3426,10 @@
         <v>168</v>
       </c>
       <c r="B99">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C99">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F99" t="s">
         <v>147</v>
@@ -3441,10 +3440,10 @@
         <v>168</v>
       </c>
       <c r="B100">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C100">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F100" t="s">
         <v>148</v>
@@ -3455,10 +3454,10 @@
         <v>168</v>
       </c>
       <c r="B101">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C101">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F101" t="s">
         <v>149</v>
@@ -3469,10 +3468,10 @@
         <v>168</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C102">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F102" t="s">
         <v>150</v>
@@ -3483,10 +3482,10 @@
         <v>168</v>
       </c>
       <c r="B103">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C103">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F103" t="s">
         <v>151</v>
@@ -3497,10 +3496,10 @@
         <v>168</v>
       </c>
       <c r="B104">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C104">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F104" t="s">
         <v>152</v>
@@ -3511,10 +3510,10 @@
         <v>168</v>
       </c>
       <c r="B105">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C105">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F105" t="s">
         <v>153</v>
@@ -3525,10 +3524,10 @@
         <v>168</v>
       </c>
       <c r="B106">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C106">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F106" t="s">
         <v>154</v>
@@ -3539,10 +3538,10 @@
         <v>168</v>
       </c>
       <c r="B107">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C107">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F107" t="s">
         <v>155</v>
@@ -3553,10 +3552,10 @@
         <v>168</v>
       </c>
       <c r="B108">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C108">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F108" t="s">
         <v>156</v>
@@ -3567,10 +3566,10 @@
         <v>168</v>
       </c>
       <c r="B109">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C109">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F109" t="s">
         <v>157</v>
@@ -3581,10 +3580,10 @@
         <v>168</v>
       </c>
       <c r="B110">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C110">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F110" t="s">
         <v>158</v>
@@ -3595,10 +3594,10 @@
         <v>168</v>
       </c>
       <c r="B111">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C111">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F111" t="s">
         <v>159</v>
@@ -3609,10 +3608,10 @@
         <v>168</v>
       </c>
       <c r="B112">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C112">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F112" t="s">
         <v>160</v>
@@ -3623,10 +3622,10 @@
         <v>168</v>
       </c>
       <c r="B113">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C113">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F113" t="s">
         <v>161</v>
@@ -3637,10 +3636,10 @@
         <v>168</v>
       </c>
       <c r="B114">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C114">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F114" t="s">
         <v>162</v>
@@ -3651,10 +3650,10 @@
         <v>168</v>
       </c>
       <c r="B115">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C115">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F115" t="s">
         <v>163</v>
@@ -3665,10 +3664,10 @@
         <v>168</v>
       </c>
       <c r="B116">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C116">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F116" t="s">
         <v>164</v>
@@ -3679,10 +3678,10 @@
         <v>168</v>
       </c>
       <c r="B117">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C117">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F117" t="s">
         <v>165</v>
@@ -3693,10 +3692,10 @@
         <v>168</v>
       </c>
       <c r="B118">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C118">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F118" t="s">
         <v>166</v>
@@ -3707,10 +3706,10 @@
         <v>168</v>
       </c>
       <c r="B119">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C119">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F119" t="s">
         <v>167</v>
@@ -3730,8 +3729,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
